--- a/redis-manager-dashboard/template/RCT_Report_Template.xlsx
+++ b/redis-manager-dashboard/template/RCT_Report_Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PrefixKeyByCount" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
@@ -218,6 +218,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -265,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +519,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -555,12 +558,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>

--- a/redis-manager-dashboard/template/RCT_Report_Template.xlsx
+++ b/redis-manager-dashboard/template/RCT_Report_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PrefixKeyByCount" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -604,13 +604,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -735,11 +737,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/redis-manager-dashboard/template/RCT_Report_Template.xlsx
+++ b/redis-manager-dashboard/template/RCT_Report_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PrefixKeyByCount" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -737,7 +739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
